--- a/assets/excel/Data Edc Rusak.xlsx
+++ b/assets/excel/Data Edc Rusak.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -38,10 +38,10 @@
     <t>Keterangan</t>
   </si>
   <si>
-    <t>TWTV</t>
-  </si>
-  <si>
-    <t>CANGKUDU</t>
+    <t>T3F5</t>
+  </si>
+  <si>
+    <t>RAYA SERANG KM. 31,5</t>
   </si>
   <si>
     <t>RTM</t>
@@ -50,211 +50,286 @@
     <t>MGI</t>
   </si>
   <si>
+    <t>15-05-2024</t>
+  </si>
+  <si>
+    <t>Signal EDC BCA 2G tidak dapat di gunakan sudah info team toko untuk co virtual</t>
+  </si>
+  <si>
+    <t>TMCQ</t>
+  </si>
+  <si>
+    <t>TAMAN CIKANDE</t>
+  </si>
+  <si>
+    <t>14-05-2024</t>
+  </si>
+  <si>
+    <t>Port USB EDC BCA rusak sudah di coba ganti kabel tetap tidak terdetek.</t>
+  </si>
+  <si>
+    <t>T7Y9</t>
+  </si>
+  <si>
+    <t>SPBU PRABU KIANSANTANG</t>
+  </si>
+  <si>
+    <t>DWI</t>
+  </si>
+  <si>
+    <t>MYP</t>
+  </si>
+  <si>
+    <t>22-05-2024</t>
+  </si>
+  <si>
+    <t>EDC BCA Offline ( Butuh kabel USB ), Wirecard Online</t>
+  </si>
+  <si>
+    <t>TBOD</t>
+  </si>
+  <si>
+    <t>PABUARAN SUKAMANTRI</t>
+  </si>
+  <si>
+    <t>MRN</t>
+  </si>
+  <si>
+    <t>EDC Tidak bisa respon walaupun device sudah terdeteksi dikomputer (indikasi rusak edc bca)</t>
+  </si>
+  <si>
+    <t>TS97</t>
+  </si>
+  <si>
+    <t>WISMA LANTANA</t>
+  </si>
+  <si>
+    <t>KDI</t>
+  </si>
+  <si>
+    <t>24-05-2024</t>
+  </si>
+  <si>
+    <t>EDC BCA RUSAK ( jika online setelah selesai transaksi EDC mati sehingga tidak dapat kirim kode Approval oto ), EDC Wirecard Online</t>
+  </si>
+  <si>
+    <t>TGDN</t>
+  </si>
+  <si>
+    <t>PRABU SILIWANGI</t>
+  </si>
+  <si>
+    <t>ESH</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>25/05/2024</t>
+  </si>
+  <si>
+    <t>MINTA GANTI EDC, NGEHANG DAN TIDAK RESPON</t>
+  </si>
+  <si>
+    <t>FDE7</t>
+  </si>
+  <si>
+    <t>LEDUG ASEM</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>19/05/2024</t>
+  </si>
+  <si>
+    <t>MANDIRI BCA OFFLINE BUTUH KABEL</t>
+  </si>
+  <si>
+    <t>T81G</t>
+  </si>
+  <si>
+    <t>NANAS RAYA</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>SUDAH GANTI KABEL USB BARU TETAP TIDAK TERDETEK DI KOMPUTER MESIN EDC NYA</t>
+  </si>
+  <si>
+    <t>T172</t>
+  </si>
+  <si>
+    <t>MALABAR</t>
+  </si>
+  <si>
+    <t>FK01</t>
+  </si>
+  <si>
+    <t>BENTENG BETAWI II</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>16/05/2024</t>
+  </si>
+  <si>
+    <t>TVGX</t>
+  </si>
+  <si>
+    <t>RAYA BATOK TENJO</t>
+  </si>
+  <si>
+    <t>EDO</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
     <t>16-05-2024</t>
   </si>
   <si>
-    <t>EDC BCA sering mati sendiri dan untuk adaptor casan rusak pakai USB juga tidak bisa cas</t>
-  </si>
-  <si>
-    <t>T3F5</t>
-  </si>
-  <si>
-    <t>RAYA SERANG KM. 31,5</t>
-  </si>
-  <si>
-    <t>15-05-2024</t>
-  </si>
-  <si>
-    <t>Signal EDC BCA 2G tidak dapat di gunakan sudah info team toko untuk co virtual</t>
-  </si>
-  <si>
-    <t>TYRF</t>
-  </si>
-  <si>
-    <t>REST AREA 42.5</t>
-  </si>
-  <si>
-    <t>HKI</t>
-  </si>
-  <si>
-    <t>St 01 EDC BCA ONLINE, St 02 Kabel USB EDC BCA rusak dan st 05 Port EDC BCA rusak tidak terdetek</t>
-  </si>
-  <si>
-    <t>TMCQ</t>
-  </si>
-  <si>
-    <t>TAMAN CIKANDE</t>
-  </si>
-  <si>
-    <t>14-05-2024</t>
-  </si>
-  <si>
-    <t>Port USB EDC BCA rusak sudah di coba ganti kabel tetap tidak terdetek.</t>
-  </si>
-  <si>
-    <t>TAXR</t>
-  </si>
-  <si>
-    <t>ANNIELAND</t>
-  </si>
-  <si>
-    <t>EDO</t>
-  </si>
-  <si>
-    <t>AGN</t>
-  </si>
-  <si>
-    <t>17-05-2014</t>
-  </si>
-  <si>
-    <t>Kabel USB EDC BCA terdetek, sudah setting port masih tidak online, setingan database masih offline</t>
-  </si>
-  <si>
-    <t>TBOD</t>
-  </si>
-  <si>
-    <t>PABUARAN SUKAMANTRI</t>
-  </si>
-  <si>
-    <t>DWI</t>
-  </si>
-  <si>
-    <t>MRN</t>
-  </si>
-  <si>
-    <t>Rusak</t>
-  </si>
-  <si>
-    <t>FALY</t>
-  </si>
-  <si>
-    <t>SEWAN RAWA KUCING</t>
+    <t>offline edc tidak respon online, com bca sudah terdetek dan sudah sesuai setting diposnet</t>
+  </si>
+  <si>
+    <t>TWKQ</t>
+  </si>
+  <si>
+    <t>CIAKAR</t>
+  </si>
+  <si>
+    <t>AFN</t>
+  </si>
+  <si>
+    <t>BRP</t>
+  </si>
+  <si>
+    <t>20-05-2024</t>
+  </si>
+  <si>
+    <t>OFFLINE edc tidak respon online, kabel usb edc terpasang dan sudah sesuai setting com diposnet</t>
+  </si>
+  <si>
+    <t>FEZ6</t>
+  </si>
+  <si>
+    <t>PERUM BANTAR PANJANG</t>
+  </si>
+  <si>
+    <t>AMI</t>
+  </si>
+  <si>
+    <t>port usb edc rusak, sudah info virtual agar ganti edc</t>
+  </si>
+  <si>
+    <t>TYFN</t>
+  </si>
+  <si>
+    <t>KEDATON</t>
+  </si>
+  <si>
+    <t>EPO</t>
+  </si>
+  <si>
+    <t>APN</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>Edc BCA station 02 tidak bisa charging &amp; tidak ada menu Top Up Flazz</t>
+  </si>
+  <si>
+    <t>TKCT</t>
+  </si>
+  <si>
+    <t>SEPATAN GEDONG</t>
+  </si>
+  <si>
+    <t>AGR</t>
+  </si>
+  <si>
+    <t>AWA</t>
+  </si>
+  <si>
+    <t>usb EDC BCA sudah terbaca namun settingan h2h belum aktif sudah di co ke region</t>
+  </si>
+  <si>
+    <t>FA0G</t>
+  </si>
+  <si>
+    <t>JAYA IMPERIAL PARK</t>
+  </si>
+  <si>
+    <t>11-05-24</t>
+  </si>
+  <si>
+    <t>port edc BCA rusak</t>
+  </si>
+  <si>
+    <t>FT78</t>
+  </si>
+  <si>
+    <t>M TOHA</t>
+  </si>
+  <si>
+    <t>SHA</t>
+  </si>
+  <si>
+    <t>17-05-2024</t>
+  </si>
+  <si>
+    <t>Edc BCA online namun input approval code masih manual</t>
+  </si>
+  <si>
+    <t>TQT0</t>
+  </si>
+  <si>
+    <t>M TOHA KM 3.5</t>
+  </si>
+  <si>
+    <t>EDC) BCA : Offline ( Tidak bisa respon, secara device sudah terdeteksi port usb/drivernya)</t>
+  </si>
+  <si>
+    <t>TCRA</t>
+  </si>
+  <si>
+    <t>BENOA MAS</t>
+  </si>
+  <si>
+    <t>TLXX</t>
+  </si>
+  <si>
+    <t>KAYU AGUNG</t>
   </si>
   <si>
     <t>FDS</t>
   </si>
   <si>
-    <t>AYO</t>
-  </si>
-  <si>
-    <t>16/05/2024</t>
-  </si>
-  <si>
-    <t>EDC RUSAK TIDAK RESPON</t>
-  </si>
-  <si>
-    <t>F875</t>
-  </si>
-  <si>
-    <t>MODERN LAND 2</t>
-  </si>
-  <si>
-    <t>OSI</t>
-  </si>
-  <si>
-    <t>ARO</t>
-  </si>
-  <si>
-    <t>13/05/2024</t>
-  </si>
-  <si>
-    <t>SUDAH GANTI KABEL USB BARU TETAP TIDAK TERDETEK DI KOMPUTER MESIN EDC NYA</t>
-  </si>
-  <si>
-    <t>T81G</t>
-  </si>
-  <si>
-    <t>NANAS RAYA</t>
-  </si>
-  <si>
-    <t>ESH</t>
-  </si>
-  <si>
-    <t>SDO</t>
-  </si>
-  <si>
-    <t>15/05/2024</t>
-  </si>
-  <si>
-    <t>T172</t>
-  </si>
-  <si>
-    <t>MALABAR</t>
-  </si>
-  <si>
-    <t>FK01</t>
-  </si>
-  <si>
-    <t>BENTENG BETAWI II</t>
-  </si>
-  <si>
-    <t>ABD</t>
-  </si>
-  <si>
-    <t>AAP</t>
-  </si>
-  <si>
-    <t>TNJ4</t>
-  </si>
-  <si>
-    <t>BENTENG BETAWI 3 BC</t>
-  </si>
-  <si>
-    <t>EDC BCA TERDETEK DI KOMPUTER NAMUN SAAT TRANSAKSI/TOP UP TIDAK ADA RESPON DI MESIN EDC</t>
-  </si>
-  <si>
-    <t>TVGX</t>
-  </si>
-  <si>
-    <t>RAYA BATOK TENJO</t>
-  </si>
-  <si>
-    <t>TGO</t>
-  </si>
-  <si>
-    <t>port usb edc rusak, edc tidak terbaca dikomputer sudah info kevirtual</t>
-  </si>
-  <si>
-    <t>FEZ6</t>
-  </si>
-  <si>
-    <t>PERUM BANTAR PANJANG</t>
-  </si>
-  <si>
-    <t>AMI</t>
-  </si>
-  <si>
-    <t>port usb edc rusak, sudah info virtual agar ganti edc</t>
-  </si>
-  <si>
-    <t>FOLE</t>
-  </si>
-  <si>
-    <t>GRIYA TAMAN WALET</t>
-  </si>
-  <si>
-    <t>AGR</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>17/05/2024</t>
-  </si>
-  <si>
-    <t>EDC Bca perlu usulan ganti unit(Port usb sudah sangat koyak/rusak)</t>
-  </si>
-  <si>
-    <t>TCRA</t>
-  </si>
-  <si>
-    <t>BENOA MAS</t>
-  </si>
-  <si>
-    <t>SHA</t>
-  </si>
-  <si>
-    <t>EDC BCA : Offline ( Tidak bisa respon, secara device sudah terdeteksi port usb/drivernya)</t>
+    <t>MHN</t>
+  </si>
+  <si>
+    <t>13-05-2024</t>
+  </si>
+  <si>
+    <t>EDC sudah online tetapi aprroval tetap manual</t>
+  </si>
+  <si>
+    <t>TZHX</t>
+  </si>
+  <si>
+    <t>RAYA PAKU HAJI</t>
+  </si>
+  <si>
+    <t>EDC BCA : ONLINE (tetapi edc sering mati sudah info tim toko untuk info ke virtual)</t>
   </si>
 </sst>
 </file>
@@ -593,7 +668,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,16 +756,16 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -698,22 +773,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -721,22 +796,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -744,22 +819,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,22 +842,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -790,16 +865,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
         <v>46</v>
@@ -819,13 +894,13 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -836,19 +911,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>47</v>
@@ -871,10 +946,10 @@
         <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -882,22 +957,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -905,22 +980,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -928,22 +1003,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -951,22 +1026,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -974,20 +1049,137 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17"/>
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
